--- a/data/Mes_spr/mes.xlsx
+++ b/data/Mes_spr/mes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/przemek899/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/przemek899/Desktop/MES/data/Mes_spr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90781D61-023C-7D40-9E1B-DE3A40C0BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65AEA0F-BE4F-D84F-BBEB-556A2EC3C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2300" windowWidth="28240" windowHeight="17240" xr2:uid="{D1ABC4F6-290D-C148-AEDB-9F9D4E59EA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,14 +35,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -98,13 +94,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -267,7 +263,7 @@
             <c:numRef>
               <c:f>Arkusz1!$G$10:$G$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.9869804382324201E-2</c:v>
@@ -379,7 +375,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -604,7 +600,7 @@
             <c:numRef>
               <c:f>Arkusz1!$G$15:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.04300880432128E-2</c:v>
@@ -716,7 +712,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -938,7 +934,7 @@
             <c:numRef>
               <c:f>Arkusz1!$G$20:$G$22</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.5451130867004299</c:v>
@@ -1050,7 +1046,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3101,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D06D6F5-1991-D146-B493-C76DE6ADC386}">
   <dimension ref="F9:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
